--- a/data/groups.xlsx
+++ b/data/groups.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="100" windowWidth="19140" windowHeight="7340"/>
+    <workbookView xWindow="400" yWindow="60" windowWidth="13380" windowHeight="4340"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -18,19 +18,19 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>namezH1 : A</t>
+    <t>nameh:^</t>
   </si>
   <si>
-    <t>nameN =yO-</t>
+    <t>name!86.k 9@</t>
   </si>
   <si>
-    <t>name</t>
+    <t>name3ep</t>
   </si>
   <si>
-    <t>name 7Za</t>
+    <t>name.3sJ;"V</t>
   </si>
   <si>
-    <t>name',oma=#+(</t>
+    <t xml:space="preserve">name-t  </t>
   </si>
 </sst>
 </file>
